--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRChaseBulgeTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRChaseBulgeTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="24915" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="24915" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1288,875 +1288,875 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*30-20</f>
-        <v>-2.7781108083445112</v>
+        <v>-14.202732723255366</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*30-20</f>
-        <v>1.1330752720236283</v>
+        <v>-8.1218035652273617</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.132963990789921</v>
+        <v>-15.437633147596465</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.292273690358842</v>
+        <v>-11.556011370269117</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9591215733540892</v>
+        <v>-16.275247440046414</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3941715327855171</v>
+        <v>2.722480450911835</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.846921445986128</v>
+        <v>-6.6320651906134778</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6072619238929704</v>
+        <v>6.5987028706613948</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9728626248318086</v>
+        <v>7.6451250046716126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I23" ca="1" si="1">RAND()*30-20</f>
-        <v>-12.291240686733694</v>
+        <v>-11.727248557587235</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.077952930211403</v>
+        <v>-13.657544758132003</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8593788470292054</v>
+        <v>-9.9404075956669065</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.68279468322231</v>
+        <v>5.5007349322388635</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6208680653708125</v>
+        <v>-2.2116078753962825</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8529103811481704</v>
+        <v>-2.0851672491527431</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6270327651313039</v>
+        <v>7.5678811545818299</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93881546468086796</v>
+        <v>-6.5133184422428716</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8835492508354861</v>
+        <v>-2.9474405745775378</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9966605996202151</v>
+        <v>1.7548620249965623</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.304332873186796</v>
+        <v>-11.257478265947187</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.7529638088383486</v>
+        <v>4.0665983127090577</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.336259033288794</v>
+        <v>-12.01377745824983</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.524640328753879</v>
+        <v>-15.080437191377044</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9911063881195048</v>
+        <v>-10.478441360348102</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8715579833466816</v>
+        <v>-9.5757329170087964</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3596992291755257</v>
+        <v>-13.988622172653074</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2710867986343999</v>
+        <v>7.0736901659800857</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25834373429228918</v>
+        <v>1.51669402462392</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6914142234050598</v>
+        <v>-11.172086909138702</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.405260969952545</v>
+        <v>8.4327559379330097</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3113467211284977</v>
+        <v>-1.8015729058287064</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.201967778316877</v>
+        <v>0.19441494649391089</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71706523936727251</v>
+        <v>-5.973186689629026</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.2169407889084134</v>
+        <v>-1.2386034661689926</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0459736892855283</v>
+        <v>4.9305656467890806</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7533648643705178</v>
+        <v>-10.445804844226046</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4057222793161941</v>
+        <v>1.6478570212013395</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.505808806140692</v>
+        <v>-10.715818701236032</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0065492462026633</v>
+        <v>-18.17287662652933</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.7366969912932326</v>
+        <v>7.2905167773386736</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.111594683075349</v>
+        <v>-11.066321375385831</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6055916580743741</v>
+        <v>-8.8594105565014871</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.950474164379171</v>
+        <v>-18.620166546355961</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.123255324081802</v>
+        <v>-12.629797940172399</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.063996517575742</v>
+        <v>9.948774663249182</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79520081169203749</v>
+        <v>-2.6190866963451001</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5989232922503795</v>
+        <v>7.2091018232783739</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2466633832249183</v>
+        <v>-7.6900497743629916</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5077712386591209</v>
+        <v>-9.5876578665565848</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0246411650304523</v>
+        <v>7.3983242203673569</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35525193015444145</v>
+        <v>-6.4169911891412177</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.892737281744388</v>
+        <v>9.6598071629425704</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3282945154422006</v>
+        <v>-18.526186660900361</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7776987132666875</v>
+        <v>-3.9410270462670134</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.172581387940252</v>
+        <v>2.545329400124789</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.657915748108445</v>
+        <v>-19.879322629198164</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.848856681298205</v>
+        <v>-13.778759109499429</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15426039216868759</v>
+        <v>3.8339381374871486</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.930637372890212</v>
+        <v>3.0217875913694421</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.468142261962718</v>
+        <v>-15.002328991347568</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.818140957618626</v>
+        <v>-11.746176053698292</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5059537982351969</v>
+        <v>-19.646352623979354</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9776794584004804</v>
+        <v>-17.100788942622643</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10473629997033029</v>
+        <v>-7.9423837001438837</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8092883191044677</v>
+        <v>-15.978837516389511</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86445193116325214</v>
+        <v>-12.596823045356729</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16446699661712927</v>
+        <v>-11.888456907655561</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56750134573309197</v>
+        <v>-2.984867060973464</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.085394761778268</v>
+        <v>-10.912144175707814</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.067095323806228</v>
+        <v>-14.291043750779188</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7176649636458485</v>
+        <v>-7.3953661182664128</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3091058367836155</v>
+        <v>-17.173765250028325</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1922088843793421</v>
+        <v>1.5949687599005351</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0885427926847733</v>
+        <v>-16.865199922507291</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7229046967181336</v>
+        <v>4.5774838586697371</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.125732547966781</v>
+        <v>-13.374398789828573</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.133140920084879</v>
+        <v>9.7958887508670536</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45623398682644023</v>
+        <v>-4.0378151772712041</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4562248099706174</v>
+        <v>-4.039870989162246</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7003622907414169</v>
+        <v>6.1916997601005264</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.95126334672965</v>
+        <v>-1.1568905552883031</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5613302273669731</v>
+        <v>-2.3315605857832864</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7313897793828197</v>
+        <v>1.817923038285592</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0760126094778499</v>
+        <v>-1.2292111799434018</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7841210784853914</v>
+        <v>-15.264422289134796</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.196950553408612</v>
+        <v>-19.751282993229736</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.586541633133487</v>
+        <v>-13.99724837560233</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.007747981429098</v>
+        <v>-15.131047837877915</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6569339609310738</v>
+        <v>-16.929569720025992</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2056182049237094</v>
+        <v>7.7624058139160148</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.344498125125545</v>
+        <v>-9.8395894353170892</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5112167990767773</v>
+        <v>-9.6364229918008579</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40596048187031286</v>
+        <v>8.3452657761519795</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9626841948308673</v>
+        <v>6.1926052728691054</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5046038619201028</v>
+        <v>0.63343074961271739</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4172046453100684</v>
+        <v>9.3404216941145286</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.971636254596543</v>
+        <v>7.6716784589527762</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0315602820463035</v>
+        <v>-6.1392651117612953</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66926627595072929</v>
+        <v>-12.819195922995529</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2941359109206623</v>
+        <v>-1.5659713690897163</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8227478226864093</v>
+        <v>-15.120479272248982</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7460692909536029</v>
+        <v>-0.27358142332786883</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8439287177521244</v>
+        <v>-5.777075971606946</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88989635532458067</v>
+        <v>-8.0381790470252348</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4332292924293295</v>
+        <v>-17.052429618287505</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6930956127363892</v>
+        <v>-4.1332821121081391</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4086679313323671</v>
+        <v>-6.7461937957841211</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7597115156086396</v>
+        <v>3.1224745097780335</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.940056950111925</v>
+        <v>-7.0693580417400614</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.7998508571554837</v>
+        <v>-6.159195054515898</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1360740702315724</v>
+        <v>-4.2287586894014684</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.910371183704385</v>
+        <v>-15.967882517028276</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0189991495356132</v>
+        <v>-17.562380261046641</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8580843977664827</v>
+        <v>-3.8590028289656964</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.85930284145401</v>
+        <v>3.1666705400501378</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2903583303041977</v>
+        <v>-10.557809763764652</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.298160331129381</v>
+        <v>-16.929121827454829</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.267299423880047</v>
+        <v>-10.64750928980976</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3217020563902704</v>
+        <v>-4.6220056306635868</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5257569340357016</v>
+        <v>-13.316563711036967</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6389083381354901</v>
+        <v>5.7186871692767483</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5015860707040467</v>
+        <v>5.8501487316649836</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.4288834872254927</v>
+        <v>-7.2647814020593575</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26390415393399635</v>
+        <v>-11.014953747882167</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2526051739396884</v>
+        <v>5.7324691956495144E-3</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.6522695970924737</v>
+        <v>-17.941323361796044</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3557321871725279</v>
+        <v>-12.696267123341817</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.922277584306013</v>
+        <v>-2.6299948300168374</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.403914070860331</v>
+        <v>-19.491309940909701</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9992442096624536</v>
+        <v>1.713659069169946</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8373786113006716</v>
+        <v>9.1826685020026986</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3450623478908348</v>
+        <v>-16.946328024436159</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4765127583777744</v>
+        <v>2.2976505943472496</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.2134872936928289</v>
+        <v>-3.9190042418055917</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4441187767983514</v>
+        <v>-2.1906121236611042</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6090837084764527</v>
+        <v>-4.1687716674660376</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9114198840259711</v>
+        <v>-14.67674366667635</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9242710228027455</v>
+        <v>-16.312307645012897</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1988211953808623</v>
+        <v>-5.338857928471775</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.1633566131298281</v>
+        <v>8.2970973767381722</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.139580795454869</v>
+        <v>-4.1784778147872963</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8009902984031925</v>
+        <v>-11.267128953951094</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6626130577273557</v>
+        <v>-1.2692871782686588</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.171836380564246</v>
+        <v>-15.570206304867051</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8094362233926482</v>
+        <v>-1.4354544184480602</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.84042207517416</v>
+        <v>7.3466990381077295</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9459027684303472</v>
+        <v>-11.040017729472984</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.279182547421536</v>
+        <v>-11.824049049286661</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7735261031525731</v>
+        <v>-7.597918588197647</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.967125216056722</v>
+        <v>-12.803169558297206</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.034032398171131</v>
+        <v>-12.972228127692258</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1450253430003325</v>
+        <v>-5.1620510922610148</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.254832578069594</v>
+        <v>-17.077879166718311</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.894551247959024</v>
+        <v>-12.774361322082713</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6689608494817385</v>
+        <v>-8.8163830400791543</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.801643236153403</v>
+        <v>-13.915018006805973</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.700140856964737</v>
+        <v>-0.61051247123090846</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1865191882672708</v>
+        <v>-8.0004239982628285</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.3465521826888747</v>
+        <v>-15.587521114408714</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.988114313105964</v>
+        <v>-9.9019528827111554</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.401698448950544</v>
+        <v>3.4591284975234942</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9672515925933638</v>
+        <v>8.9142987914630609</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9104716620044471</v>
+        <v>-12.852195286667445</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.679973267161067</v>
+        <v>4.9699455542445037E-2</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6977705133172947</v>
+        <v>8.0485381910935025</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.687331971134832</v>
+        <v>-12.438363695729659</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6750192129986168</v>
+        <v>9.3040097862327116</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6671089289590633</v>
+        <v>-8.910354559440524</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3727227770666595</v>
+        <v>-5.6696478377599835</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2191478278609793</v>
+        <v>-16.977965614904747</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3935652686988753</v>
+        <v>-12.705409897267529</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.081748837595434</v>
+        <v>-7.2722429670314597</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.161662214594301</v>
+        <v>-17.101278782444048</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8537415652065334</v>
+        <v>-14.016247214814925</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5734992511075951</v>
+        <v>-19.177515732390226</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.972816175108008</v>
+        <v>8.9997178805816347</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.63141996240844</v>
+        <v>-1.3872139753530668</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.577644544856765</v>
+        <v>-14.488285146106165</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2268280205443673</v>
+        <v>-6.6440624083205009</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29296607758960036</v>
+        <v>-1.5022824193654181</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0326702081487866</v>
+        <v>4.3377365162406711</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5096000307629751</v>
+        <v>-11.320068438090148</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9910779116472348</v>
+        <v>5.1335441726055713</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.479331002756073</v>
+        <v>2.2096182540537228</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3117298183072386</v>
+        <v>-11.477864241822953</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.800061705253082</v>
+        <v>-19.969617831935711</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.016447061572935</v>
+        <v>-3.9580771910937322</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.212513265649282</v>
+        <v>-3.2337726123667849</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1629569714997601</v>
+        <v>5.5071958198213586</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.198517005799076</v>
+        <v>2.3394062483670481</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8678646924480979</v>
+        <v>-13.943565287733325</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.704971815345086</v>
+        <v>-6.5017859450600746</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.746505841200406</v>
+        <v>-14.155121621665563</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.311438207647786</v>
+        <v>-18.521974116056921</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.62340155159488475</v>
+        <v>-2.0097998611812606</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6919741998163609</v>
+        <v>-18.786902299839124</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.60375072167067</v>
+        <v>0.78668308058895775</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.52872209184045</v>
+        <v>-17.347721678156947</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.966957915803537</v>
+        <v>4.9622384170232294</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26384159574654831</v>
+        <v>-15.81291854887604</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0344313260316795</v>
+        <v>-17.147827595686355</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3085738969921543</v>
+        <v>-9.9666122125630601</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.356224348495815</v>
+        <v>7.8300209857875167</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3212953696934342</v>
+        <v>-19.602880720173303</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.391456455925711</v>
+        <v>-11.019179894457686</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8619938027721048</v>
+        <v>-18.836779784396295</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.231849449798887</v>
+        <v>7.9935439939702384</v>
       </c>
     </row>
   </sheetData>
